--- a/src/download/rts27/Table_6.xlsx
+++ b/src/download/rts27/Table_6.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/derekswift/Dropbox (Binary Services Ltd)/RMG_incorporation/Binary Investments (Europe) Ltd/MFSA/Data Requests/RTS27/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/derekswift/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D7EF450-9E44-F740-BA35-F696CEC03F81}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{27A08585-B339-DD4F-A7C4-CEE15F3D627C}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="16660" yWindow="460" windowWidth="17460" windowHeight="17540" xr2:uid="{97DE7066-FD56-4645-A677-B3D966CA198B}"/>
+    <workbookView xWindow="6040" yWindow="540" windowWidth="19020" windowHeight="17540" xr2:uid="{97DE7066-FD56-4645-A677-B3D966CA198B}"/>
   </bookViews>
   <sheets>
     <sheet name="Table 1" sheetId="1" r:id="rId1"/>
@@ -153,7 +153,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -179,11 +178,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
@@ -502,11 +502,12 @@
   <dimension ref="A1:H31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G1" sqref="G1"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
+    <col min="1" max="1" width="17.33203125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="11.83203125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="25.1640625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="25.83203125" bestFit="1" customWidth="1"/>
@@ -517,25 +518,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
+      <c r="A1" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D1" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="E1" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="F1" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="G1" s="5" t="s">
         <v>34</v>
       </c>
     </row>
